--- a/ttmotor.xlsx
+++ b/ttmotor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A80E9324-2A01-4596-999F-2C59334FC692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AEF3048-31A4-4051-BC4A-7D8926C9CE10}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{A80E9324-2A01-4596-999F-2C59334FC692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FB65DD5-7692-4035-BB47-2D558238E7C3}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{2AAF1BE1-EEDB-4B06-81C3-DBFB269D1D53}"/>
+    <workbookView xWindow="13572" yWindow="4008" windowWidth="24168" windowHeight="14388" xr2:uid="{2AAF1BE1-EEDB-4B06-81C3-DBFB269D1D53}"/>
   </bookViews>
   <sheets>
     <sheet name="motor onset" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>study</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Kim</t>
+  </si>
+  <si>
+    <t>author</t>
   </si>
 </sst>
 </file>
@@ -455,185 +458,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29F0668-FE50-4A97-B8EB-5C16E5F1B89F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>B2 &amp; " " &amp; C2</f>
+        <v>Pongraweewan 2016</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2016</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>46</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>44</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>6.4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7.7</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>3.31</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5.64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>B3 &amp; " " &amp; C3</f>
+        <v>Rohan 2014</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2014</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
         <v>10.08</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5.76</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.9</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.05</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>B4 &amp; " " &amp; C4</f>
+        <v>Valery 2013</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2013</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>40</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>45</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>11.48</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3.71</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>B5 &amp; " " &amp; C5</f>
+        <v>Abdelhady 2022</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2022</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
       </c>
       <c r="D5">
         <v>22</v>
       </c>
       <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5">
         <v>9.77</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>9.0500000000000007</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.97</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.36</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>B6 &amp; " " &amp; C6</f>
+        <v>Kim 2011</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2011</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>19</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>17</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>13.3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>10</v>
       </c>
     </row>
